--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amrit\Desktop\mongo project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA565F0A-EC6A-42EB-9F78-2B192A033882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73D5A5D-5914-432E-962B-938DCEF1B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E527F958-E6F6-480A-85FC-B3F8294F9CFC}"/>
   </bookViews>
